--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_5_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_5_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1969703.083577722</v>
+        <v>1962529.794867439</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.7357022</v>
+        <v>2346514.735702199</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665968</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>246.0227869135479</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,55 +670,55 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>243.6664403444227</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>251.3343897888113</v>
+      </c>
+      <c r="V2" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>205.0481221176458</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>141.0252816852793</v>
-      </c>
-      <c r="S2" t="n">
-        <v>205.8118405263978</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.78244770049807</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>67.46139364777271</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>28.69723130130874</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>160.1989433021659</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>372.0396308464237</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>295.8883197695363</v>
+        <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280912</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3078446008425</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>330.109655731265</v>
       </c>
     </row>
     <row r="6">
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0906518175546</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281896</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.45800155129662</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1455039024624</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9247462029711</v>
+        <v>13.24278813295404</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>136.7574007477191</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5860313669141</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>56.87637597787199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>353.5759586385877</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1183,13 +1183,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>341.579524357811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="T10" t="n">
-        <v>144.54503968478</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1548,7 +1548,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037876</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>64.34190763938973</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>32.58786218362066</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1666,13 +1666,13 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>26.27275520016762</v>
       </c>
       <c r="U16" t="n">
-        <v>286.237352398573</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980186348</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110.6907158639544</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365826</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2092,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>15.9328547480722</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>155.8385935972322</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>118.4898845065126</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>77.39915934771268</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>252.8505008312588</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>64.99476831707621</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>188.4590648403945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>136.0084799334986</v>
       </c>
       <c r="W34" t="n">
-        <v>195.5559609429028</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>104.3370797092948</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.2425576766694</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>108.9023612584545</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>246.9589016604019</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H44" t="n">
         <v>305.2872491113177</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>190.7955476484028</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>754.2855273228794</v>
+        <v>323.2990948046596</v>
       </c>
       <c r="C2" t="n">
-        <v>754.2855273228794</v>
+        <v>44.35312136793684</v>
       </c>
       <c r="D2" t="n">
-        <v>754.2855273228794</v>
+        <v>44.35312136793684</v>
       </c>
       <c r="E2" t="n">
-        <v>754.2855273228794</v>
+        <v>44.35312136793684</v>
       </c>
       <c r="F2" t="n">
-        <v>508.1578098032605</v>
+        <v>37.40762061873336</v>
       </c>
       <c r="G2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618846</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
         <v>344.9085595412869</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>754.2855273228794</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>754.2855273228794</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U2" t="n">
-        <v>754.2855273228794</v>
+        <v>850.7529338106226</v>
       </c>
       <c r="V2" t="n">
-        <v>754.2855273228794</v>
+        <v>571.8069603738999</v>
       </c>
       <c r="W2" t="n">
-        <v>754.2855273228794</v>
+        <v>571.8069603738999</v>
       </c>
       <c r="X2" t="n">
-        <v>754.2855273228794</v>
+        <v>571.8069603738999</v>
       </c>
       <c r="Y2" t="n">
-        <v>754.2855273228794</v>
+        <v>571.8069603738999</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>248.4271328501548</v>
+        <v>171.0269307574397</v>
       </c>
       <c r="C3" t="n">
-        <v>248.4271328501548</v>
+        <v>171.0269307574397</v>
       </c>
       <c r="D3" t="n">
-        <v>248.4271328501548</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E3" t="n">
-        <v>248.4271328501548</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F3" t="n">
-        <v>248.4271328501548</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>165.799003153448</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L3" t="n">
-        <v>291.3393440954743</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M3" t="n">
-        <v>564.7342926608062</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N3" t="n">
-        <v>838.1292412261381</v>
+        <v>815.0378848195531</v>
       </c>
       <c r="O3" t="n">
-        <v>1104.626054809422</v>
+        <v>1081.534698402837</v>
       </c>
       <c r="P3" t="n">
         <v>1104.626054809422</v>
@@ -4433,28 +4433,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1058.381158142252</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>886.3771453934307</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>684.49724542154</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>456.2786330556876</v>
+        <v>1036.483232942985</v>
       </c>
       <c r="V3" t="n">
-        <v>456.2786330556876</v>
+        <v>801.3311247112422</v>
       </c>
       <c r="W3" t="n">
-        <v>456.2786330556876</v>
+        <v>547.0937679830406</v>
       </c>
       <c r="X3" t="n">
-        <v>248.4271328501548</v>
+        <v>339.2422677775078</v>
       </c>
       <c r="Y3" t="n">
-        <v>248.4271328501548</v>
+        <v>339.2422677775078</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.1756025565036</v>
+        <v>170.0056146785816</v>
       </c>
       <c r="C4" t="n">
-        <v>37.1756025565036</v>
+        <v>170.0056146785816</v>
       </c>
       <c r="D4" t="n">
-        <v>37.1756025565036</v>
+        <v>170.0056146785816</v>
       </c>
       <c r="E4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
         <v>22.09252109618844</v>
@@ -4527,13 +4527,13 @@
         <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>37.1756025565036</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>37.1756025565036</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y4" t="n">
-        <v>37.1756025565036</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>529.7835701034096</v>
+        <v>778.9168197718678</v>
       </c>
       <c r="C5" t="n">
-        <v>529.7835701034096</v>
+        <v>409.9543028314561</v>
       </c>
       <c r="D5" t="n">
-        <v>529.7835701034096</v>
+        <v>51.68860422470561</v>
       </c>
       <c r="E5" t="n">
-        <v>529.7835701034096</v>
+        <v>51.68860422470561</v>
       </c>
       <c r="F5" t="n">
-        <v>522.8380693542061</v>
+        <v>44.74310347550215</v>
       </c>
       <c r="G5" t="n">
-        <v>223.9609786779068</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="H5" t="n">
-        <v>223.9609786779068</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771358</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="J5" t="n">
-        <v>57.6439173538032</v>
+        <v>57.64391735380468</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456861</v>
+        <v>220.1747338456893</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039946</v>
+        <v>474.0852112039997</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494116</v>
+        <v>773.2160860494191</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635716</v>
+        <v>1062.555213635726</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293121</v>
+        <v>1290.582309293133</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935872</v>
+        <v>1447.523776935886</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385679</v>
+        <v>1488.158523385695</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.158523385679</v>
+        <v>1488.158523385695</v>
       </c>
       <c r="S5" t="n">
-        <v>1488.158523385679</v>
+        <v>1488.158523385695</v>
       </c>
       <c r="T5" t="n">
-        <v>1488.158523385679</v>
+        <v>1488.158523385695</v>
       </c>
       <c r="U5" t="n">
-        <v>1234.31221570806</v>
+        <v>1488.158523385695</v>
       </c>
       <c r="V5" t="n">
-        <v>903.2493283644895</v>
+        <v>1488.158523385695</v>
       </c>
       <c r="W5" t="n">
-        <v>903.2493283644895</v>
+        <v>1488.158523385695</v>
       </c>
       <c r="X5" t="n">
-        <v>529.7835701034096</v>
+        <v>1488.158523385695</v>
       </c>
       <c r="Y5" t="n">
-        <v>529.7835701034096</v>
+        <v>1154.714426687447</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>666.4184890280303</v>
+        <v>484.4695931075357</v>
       </c>
       <c r="C6" t="n">
-        <v>666.4184890280303</v>
+        <v>484.4695931075357</v>
       </c>
       <c r="D6" t="n">
-        <v>666.4184890280303</v>
+        <v>335.5351834462845</v>
       </c>
       <c r="E6" t="n">
-        <v>507.1810340225749</v>
+        <v>176.2977284408289</v>
       </c>
       <c r="F6" t="n">
-        <v>360.6464760494599</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="G6" t="n">
-        <v>222.1710701731421</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771358</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="J6" t="n">
-        <v>29.76317046771358</v>
+        <v>52.67537262782889</v>
       </c>
       <c r="K6" t="n">
-        <v>195.5446164760257</v>
+        <v>218.4568186361422</v>
       </c>
       <c r="L6" t="n">
-        <v>479.862625622161</v>
+        <v>502.774827782279</v>
       </c>
       <c r="M6" t="n">
-        <v>848.1818601601166</v>
+        <v>811.5244074754154</v>
       </c>
       <c r="N6" t="n">
-        <v>1216.501094698072</v>
+        <v>1179.843642013375</v>
       </c>
       <c r="O6" t="n">
-        <v>1488.158523385679</v>
+        <v>1488.158523385695</v>
       </c>
       <c r="P6" t="n">
-        <v>1488.158523385679</v>
+        <v>1488.158523385695</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385679</v>
+        <v>1488.158523385695</v>
       </c>
       <c r="R6" t="n">
-        <v>1488.158523385679</v>
+        <v>1402.847410707617</v>
       </c>
       <c r="S6" t="n">
-        <v>1488.158523385679</v>
+        <v>1402.847410707617</v>
       </c>
       <c r="T6" t="n">
-        <v>1287.001448736727</v>
+        <v>1402.847410707617</v>
       </c>
       <c r="U6" t="n">
-        <v>1058.794634390292</v>
+        <v>1389.470857037967</v>
       </c>
       <c r="V6" t="n">
-        <v>1058.794634390292</v>
+        <v>1154.318748806224</v>
       </c>
       <c r="W6" t="n">
-        <v>804.55727766209</v>
+        <v>900.0813920780224</v>
       </c>
       <c r="X6" t="n">
-        <v>804.55727766209</v>
+        <v>692.2298918724896</v>
       </c>
       <c r="Y6" t="n">
-        <v>666.4184890280303</v>
+        <v>484.4695931075357</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.76317046771358</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="C7" t="n">
-        <v>29.76317046771358</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="D7" t="n">
-        <v>29.76317046771358</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771358</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771358</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771358</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771358</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771358</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771358</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888097</v>
+        <v>32.09990175888196</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611155</v>
+        <v>90.61654790611341</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236671</v>
+        <v>162.7032697236699</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468399998</v>
+        <v>238.5105468400035</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057918</v>
+        <v>292.5145415057963</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918643</v>
+        <v>315.2036061918695</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918643</v>
+        <v>315.2036061918695</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918643</v>
+        <v>315.2036061918695</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918643</v>
+        <v>315.2036061918695</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918643</v>
+        <v>315.2036061918695</v>
       </c>
       <c r="U7" t="n">
-        <v>315.2036061918643</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="V7" t="n">
-        <v>315.2036061918643</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="W7" t="n">
-        <v>315.2036061918643</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="X7" t="n">
-        <v>87.21405529384691</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.76317046771358</v>
+        <v>29.76317046771389</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1394.624369323446</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C8" t="n">
-        <v>1394.624369323446</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1739.654191907093</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.654191907093</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y8" t="n">
-        <v>1394.624369323446</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="9">
@@ -4892,13 +4892,13 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4907,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="T10" t="n">
-        <v>190.2718927217162</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U10" t="n">
-        <v>190.2718927217162</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V10" t="n">
-        <v>190.2718927217162</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W10" t="n">
-        <v>190.2718927217162</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X10" t="n">
-        <v>190.2718927217162</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2718927217162</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341678</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632138</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D13" t="n">
-        <v>822.148054050878</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684849</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119734</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1322.84934122136</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1322.84934122136</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1322.84934122136</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1322.84934122136</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>1322.84934122136</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X13" t="n">
-        <v>1322.84934122136</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="14">
@@ -5275,49 +5275,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341677</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247865</v>
+        <v>1272.458123907629</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038349</v>
+        <v>983.329485121187</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324621</v>
+        <v>983.329485121187</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447955015</v>
+        <v>693.9123150842264</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028589</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028589</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395484</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>394.223678370532</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C19" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557903</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352016</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150636</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X19" t="n">
-        <v>726.8250614170463</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.0324822735162</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5752,28 +5752,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5834,10 +5834,10 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
         <v>1247.466478653857</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4073.011257337222</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>3904.075074409315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>3753.958434996979</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>3606.045341414586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014293</v>
+        <v>1482.822477883082</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014293</v>
+        <v>1259.037062672588</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014293</v>
+        <v>1259.037062672588</v>
       </c>
       <c r="V22" t="n">
-        <v>4860.854573014293</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="W22" t="n">
-        <v>4703.441852209008</v>
+        <v>714.9354044297403</v>
       </c>
       <c r="X22" t="n">
-        <v>4475.452301310991</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="Y22" t="n">
-        <v>4254.659722167461</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6013,28 +6013,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655742</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286137</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>437.6964226305963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>216.9038434870662</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6247,31 +6247,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1943.227873734288</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>644.1080300429513</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C28" t="n">
-        <v>644.1080300429513</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D28" t="n">
-        <v>493.9913906306156</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E28" t="n">
-        <v>493.9913906306156</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
         <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>898.7925182488382</v>
+        <v>1019.726309053207</v>
       </c>
       <c r="V28" t="n">
-        <v>644.1080300429513</v>
+        <v>765.0418208473205</v>
       </c>
       <c r="W28" t="n">
-        <v>644.1080300429513</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X28" t="n">
-        <v>644.1080300429513</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y28" t="n">
-        <v>644.1080300429513</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="29">
@@ -6442,67 +6442,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>247.3337308726216</v>
+        <v>481.4617027208818</v>
       </c>
       <c r="C31" t="n">
-        <v>247.3337308726216</v>
+        <v>481.4617027208818</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028583</v>
+        <v>481.4617027208818</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>481.4617027208818</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>481.4617027208818</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>313.2863810407024</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>162.8683725886457</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655738</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W31" t="n">
-        <v>665.6859735286132</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="X31" t="n">
-        <v>437.6964226305959</v>
+        <v>481.4617027208818</v>
       </c>
       <c r="Y31" t="n">
-        <v>247.3337308726216</v>
+        <v>481.4617027208818</v>
       </c>
     </row>
     <row r="32">
@@ -6679,67 +6679,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6776,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>485.5200852635878</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>416.2699138005285</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V34" t="n">
-        <v>1244.231782352015</v>
+        <v>1250.458864156598</v>
       </c>
       <c r="W34" t="n">
-        <v>1046.700508672316</v>
+        <v>1250.458864156598</v>
       </c>
       <c r="X34" t="n">
-        <v>818.7109577742983</v>
+        <v>1250.458864156598</v>
       </c>
       <c r="Y34" t="n">
-        <v>597.9183786307682</v>
+        <v>1029.666285013068</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4353.022539435175</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>4184.086356507268</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>4184.086356507268</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4755.463583408944</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4755.463583408944</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4755.463583408944</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4755.463583408944</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>4755.463583408944</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>4755.463583408944</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4755.463583408944</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>4534.671004265414</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7174,16 +7174,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7192,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2338.698370483031</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1340.085404217832</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1340.085404217832</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1050.956765431391</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V40" t="n">
-        <v>796.2722772255036</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W40" t="n">
-        <v>506.8551071885429</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X40" t="n">
-        <v>278.8655562905255</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7414,16 +7414,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>485.5200852635876</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>1099.417155020476</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1406.737288300438</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3757.185126911404</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>3757.185126911404</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3607.068487499068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>4637.069157803799</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>4387.615721783191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>4387.615721783191</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>4387.615721783191</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>4159.626170885173</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>3938.833591741643</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
         <v>488.193237080547</v>
@@ -7651,16 +7651,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>181.9314425141218</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>592.8217113586345</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1306.193495155475</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1017.064856369034</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,25 +8057,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
-        <v>249.0068850502524</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273546</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>142.9145225887215</v>
       </c>
       <c r="Q3" t="n">
         <v>130.3661252938572</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>102.9473967948388</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835721</v>
+        <v>389.93198475345</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470447</v>
+        <v>437.6152809470468</v>
       </c>
       <c r="O6" t="n">
-        <v>356.8345892921726</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>85.68821697936238</v>
+        <v>85.68821697936103</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.7037345247347</v>
+        <v>107.7037345247338</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229571</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>38.86002301949912</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,25 +9011,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229573</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>288.4091825776742</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229573</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776744</v>
+        <v>29.47535963978262</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>182.034074286795</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>96.03744927814716</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10907,25 +10907,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>199.7396287231151</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,13 +11141,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>199.7396287231155</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>253.7371603504736</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>43.65987261462463</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>133.5789023442135</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23475,7 +23475,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>185.9967911684741</v>
       </c>
     </row>
     <row r="14">
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>195.2748058582216</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871737</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.14126431798293</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>48.75693659211572</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23946,7 +23946,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24177,19 +24177,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>181.987955235531</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>130.6844047393588</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>61.34209567542474</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24606,16 +24606,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>68.02188867521856</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>33.38685156731853</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>45.42447714719577</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>30.12558851170024</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25134,13 +25134,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>116.1291633903294</v>
       </c>
       <c r="W34" t="n">
-        <v>90.96703739368823</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.627272694497989</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25599,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>40.67825230693387</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>109.6822920936403</v>
       </c>
     </row>
     <row r="41">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>39.27845073817542</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>30.75201340998649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>876357.1682632326</v>
+        <v>876357.1682632325</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>876357.1682632326</v>
+        <v>876357.1682632325</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>876357.1682632323</v>
+        <v>876357.1682632325</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>876357.1682632323</v>
+        <v>876357.1682632325</v>
       </c>
     </row>
     <row r="15">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="F2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="G2" t="n">
         <v>527889.2306459071</v>
-      </c>
-      <c r="G2" t="n">
-        <v>527889.2306459072</v>
       </c>
       <c r="H2" t="n">
         <v>527889.2306459071</v>
@@ -26337,10 +26337,10 @@
         <v>527889.2306459071</v>
       </c>
       <c r="J2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="K2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="L2" t="n">
         <v>527889.2306459068</v>
@@ -26349,13 +26349,13 @@
         <v>527889.2306459071</v>
       </c>
       <c r="N2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="O2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703812</v>
+        <v>106137.1517703855</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252134</v>
+        <v>316711.9424252094</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.370099883548738e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113882</v>
+        <v>72254.69487113913</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313348</v>
+        <v>24677.24609313455</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817207</v>
+        <v>76496.15793817099</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>308534.3126760299</v>
       </c>
       <c r="C4" t="n">
-        <v>278381.9556177385</v>
+        <v>278381.9556177373</v>
       </c>
       <c r="D4" t="n">
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="F4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="G4" t="n">
         <v>36432.48351773394</v>
-      </c>
-      <c r="F4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="G4" t="n">
-        <v>36432.48351773398</v>
       </c>
       <c r="H4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="J4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773391</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="M4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="N4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="O4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="P4" t="n">
         <v>36432.48351773395</v>
-      </c>
-      <c r="N4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="O4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="P4" t="n">
-        <v>36432.48351773394</v>
       </c>
     </row>
     <row r="5">
@@ -26472,40 +26472,40 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485695</v>
+        <v>58810.42201485726</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68194.16101876809</v>
+        <v>68194.16101876792</v>
       </c>
       <c r="C6" t="n">
-        <v>110873.6652554148</v>
+        <v>110873.6652554112</v>
       </c>
       <c r="D6" t="n">
-        <v>-28716.51268735962</v>
+        <v>-28716.51268735548</v>
       </c>
       <c r="E6" t="n">
-        <v>-125690.6152974401</v>
+        <v>-126665.2065571613</v>
       </c>
       <c r="F6" t="n">
-        <v>399469.4211794565</v>
+        <v>398494.8299197347</v>
       </c>
       <c r="G6" t="n">
-        <v>399469.4211794566</v>
+        <v>398494.8299197349</v>
       </c>
       <c r="H6" t="n">
-        <v>399469.4211794565</v>
+        <v>398494.8299197349</v>
       </c>
       <c r="I6" t="n">
-        <v>399469.4211794565</v>
+        <v>398494.8299197349</v>
       </c>
       <c r="J6" t="n">
-        <v>327214.7263083175</v>
+        <v>326240.1350485957</v>
       </c>
       <c r="K6" t="n">
-        <v>374792.1750863229</v>
+        <v>373817.5838266005</v>
       </c>
       <c r="L6" t="n">
-        <v>322973.2632412842</v>
+        <v>321998.6719815636</v>
       </c>
       <c r="M6" t="n">
-        <v>264668.4059456193</v>
+        <v>263693.8146858977</v>
       </c>
       <c r="N6" t="n">
-        <v>399469.4211794562</v>
+        <v>398494.8299197349</v>
       </c>
       <c r="O6" t="n">
-        <v>399469.4211794564</v>
+        <v>398494.8299197347</v>
       </c>
       <c r="P6" t="n">
-        <v>399469.4211794564</v>
+        <v>398494.8299197349</v>
       </c>
     </row>
   </sheetData>
@@ -26700,7 +26700,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26737,43 +26737,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>117.560204559387</v>
+        <v>117.5602045593903</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
@@ -26792,19 +26792,19 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464198</v>
+        <v>372.0396308464237</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026169</v>
+        <v>82.53894384026501</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576996</v>
+        <v>260.1834596576963</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.8831171440643</v>
+        <v>95.88311714406824</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081358</v>
+        <v>302.2476419081319</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023556</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406407</v>
+        <v>95.88311714406824</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081361</v>
+        <v>302.2476419081318</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.8831171440643</v>
+        <v>95.88311714406824</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081358</v>
+        <v>302.2476419081319</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>136.7110547499327</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865207</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>163.2096053972888</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>139.005434824964</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777942</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.6983961998815</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>158.4750325944211</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>151.1347488806286</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27563,7 +27563,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>126.3240550344251</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>10.6942108170569</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>118.941813908174</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657417</v>
+        <v>334.6347480657416</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.2558301280907</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385222</v>
+        <v>120.1819171385213</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409306</v>
+        <v>198.2506096409303</v>
       </c>
       <c r="T5" t="n">
-        <v>221.0270262658049</v>
+        <v>221.0270262658048</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>56.12828292478861</v>
       </c>
     </row>
     <row r="6">
@@ -27700,7 +27700,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281871</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129706</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141302</v>
+        <v>166.9863082141301</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>212.6819580700171</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>68.9252950295853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27791,13 +27791,13 @@
         <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
-        <v>160.342354801553</v>
+        <v>160.3423548015529</v>
       </c>
       <c r="I7" t="n">
-        <v>149.0752428504968</v>
+        <v>149.0752428504966</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358503</v>
+        <v>78.3712176435846</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322694</v>
+        <v>68.41045236322645</v>
       </c>
       <c r="R7" t="n">
-        <v>167.7613787255182</v>
+        <v>167.7613787255179</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674584</v>
+        <v>220.3221240674583</v>
       </c>
       <c r="T7" t="n">
-        <v>227.0397976882338</v>
+        <v>227.0397976882337</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3074660576818</v>
+        <v>3.721434690767694</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>161.7082773742228</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,19 +27858,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>53.3000871031237</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.65841429824258</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>152.4187013741502</v>
       </c>
       <c r="T10" t="n">
-        <v>80.49006577330425</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28110,7 +28110,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-8.748206449543158e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28295,7 +28295,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.184593495262864e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-6.190252600806797e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28541,7 +28541,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>4.336205468765305e-12</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-7.895555166631037e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28784,7 +28784,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>8.362143316411503e-12</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-8.411472576664805e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -31047,7 +31047,7 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.42776745276012</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -31059,28 +31059,28 @@
         <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677233</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N2" t="n">
         <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q2" t="n">
         <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587038</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.616303794162698</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U2" t="n">
         <v>0.01126311902524633</v>
@@ -31120,25 +31120,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779991</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L3" t="n">
         <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192331</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N3" t="n">
         <v>19.59175225833409</v>
@@ -31150,10 +31150,10 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164377</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263571</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S3" t="n">
         <v>1.399198482504676</v>
@@ -31162,7 +31162,7 @@
         <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,37 +31199,37 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I4" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174389</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170847</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894685</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M4" t="n">
-        <v>9.89953440294882</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394052</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179687</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938414</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587926</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R4" t="n">
         <v>2.839592713390063</v>
@@ -31238,10 +31238,10 @@
         <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246711</v>
+        <v>0.4726038374246844</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025414</v>
+        <v>4.84005405002555</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231465</v>
+        <v>18.22005944231516</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662222</v>
+        <v>40.11165994662334</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480856</v>
+        <v>60.11698038481024</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439385</v>
+        <v>74.58043007439595</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819484</v>
+        <v>82.98509856819717</v>
       </c>
       <c r="N5" t="n">
-        <v>84.3278842212777</v>
+        <v>84.32788422128006</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288613</v>
+        <v>79.62842981288836</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646454</v>
+        <v>67.96102257646645</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869349</v>
+        <v>51.03589764869492</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262752</v>
+        <v>29.68720080262836</v>
       </c>
       <c r="S5" t="n">
-        <v>10.7694599453147</v>
+        <v>10.76945994531501</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326499</v>
+        <v>2.068823298326557</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397368</v>
+        <v>0.03780830699397474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.25286534565604</v>
+        <v>0.2528653456560471</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941229</v>
+        <v>2.442146890941298</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596116</v>
+        <v>8.706109488596361</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182789</v>
+        <v>23.89022987182856</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078257</v>
+        <v>40.83220803078372</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483448</v>
+        <v>54.90394270483603</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486593</v>
+        <v>64.07031148486772</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270842</v>
+        <v>65.76606198271026</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106668</v>
+        <v>60.16309827106837</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496786</v>
+        <v>48.28619043496921</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.2780395612868</v>
+        <v>32.27803956128771</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134607</v>
+        <v>15.69983260134651</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707583</v>
+        <v>4.696862889707714</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359214</v>
+        <v>1.019224792359242</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368685</v>
+        <v>0.01663587800368732</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.211993811500534</v>
+        <v>0.2119938115005399</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886567</v>
+        <v>1.88481770588662</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761514</v>
+        <v>6.375232076761693</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308775</v>
+        <v>14.98796247308817</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342567</v>
+        <v>24.62982646342636</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072485</v>
+        <v>31.51769812072573</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094279</v>
+        <v>33.23099356094372</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898628</v>
+        <v>32.44083480898719</v>
       </c>
       <c r="O7" t="n">
-        <v>29.9643616473664</v>
+        <v>29.96436164736723</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275548</v>
+        <v>25.6396878927562</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846744</v>
+        <v>17.75159088846794</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651279</v>
+        <v>9.532012651651547</v>
       </c>
       <c r="S7" t="n">
-        <v>3.69447396951385</v>
+        <v>3.694473969513953</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477358</v>
+        <v>0.9057917400477612</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912005</v>
+        <v>0.01156329880912037</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424828</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522134</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315785</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>126.8084251939659</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
         <v>276.1565137023555</v>
@@ -34795,7 +34795,7 @@
         <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>23.3246024308939</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34868,13 +34868,13 @@
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O4" t="n">
         <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831902</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.1623705920097</v>
+        <v>28.16237059201082</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109927</v>
+        <v>164.1725419109944</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548571</v>
+        <v>256.4752296548592</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337546</v>
+        <v>302.1523988337569</v>
       </c>
       <c r="N5" t="n">
-        <v>292.261745036671</v>
+        <v>292.2617450366733</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539448</v>
+        <v>230.330399653947</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926776</v>
+        <v>158.5267349926796</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414869</v>
+        <v>41.04519843415012</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>23.14363854557071</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4560060690022</v>
+        <v>167.4560060690033</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284195</v>
+        <v>287.189908228421</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464198</v>
+        <v>311.8682623162994</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464198</v>
+        <v>372.0396308464237</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4014431187948</v>
+        <v>311.4291731033534</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637542817</v>
+        <v>2.360334637543506</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104098</v>
+        <v>59.10772338104186</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278337</v>
+        <v>72.8148705227843</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821487</v>
+        <v>76.57300718821578</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140607</v>
+        <v>54.54948956140691</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764897</v>
+        <v>22.91824715764969</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560245</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734236</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>321.2237252606072</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507422</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875336986</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734237</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>389.1274892183196</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>287.7526615081892</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>350.3150673110547</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>88.01303278507413</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>85.57005156953132</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504663</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
